--- a/Excel/99_text.xlsx
+++ b/Excel/99_text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E2EC0B-4A16-45F8-B127-81590651726B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA98DAB-B15A-46A3-8F6F-27E9CCD57BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="6420" windowWidth="27915" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39690" yWindow="1575" windowWidth="31680" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>No</t>
   </si>
@@ -359,6 +359,14 @@
       </rPr>
       <t>만큼 회복</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리즌서클</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>장판스킬</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -803,7 +811,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1022,7 +1030,7 @@
     </row>
     <row r="3" spans="1:68" ht="16.5">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A9" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A8" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="8">
@@ -1566,17 +1574,28 @@
       <c r="BL9" s="1"/>
       <c r="BM9" s="10"/>
     </row>
-    <row r="10" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    <row r="10" spans="1:68" ht="16.5">
+      <c r="A10" s="3">
+        <f>ROW()-2</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>99000008</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="13"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1614,9 +1633,9 @@
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
       <c r="AY10" s="10"/>
       <c r="AZ10" s="10"/>
       <c r="BA10" s="10"/>
@@ -1630,11 +1649,8 @@
       <c r="BI10" s="10"/>
       <c r="BJ10" s="10"/>
       <c r="BK10" s="10"/>
-      <c r="BL10" s="10"/>
+      <c r="BL10" s="1"/>
       <c r="BM10" s="10"/>
-      <c r="BN10" s="10"/>
-      <c r="BO10" s="1"/>
-      <c r="BP10" s="10"/>
     </row>
     <row r="11" spans="1:68" ht="12.75" customHeight="1">
       <c r="A11" s="3"/>

--- a/Excel/99_text.xlsx
+++ b/Excel/99_text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA98DAB-B15A-46A3-8F6F-27E9CCD57BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A775367-8DAC-4552-A9C7-7FF4728B29B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39690" yWindow="1575" windowWidth="31680" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39975" yWindow="1905" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>No</t>
   </si>
@@ -367,6 +367,10 @@
   </si>
   <si>
     <t>장판스킬</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>메테오</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -811,7 +815,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1652,17 +1656,28 @@
       <c r="BL10" s="1"/>
       <c r="BM10" s="10"/>
     </row>
-    <row r="11" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+    <row r="11" spans="1:68" ht="16.5">
+      <c r="A11" s="3">
+        <f>ROW()-2</f>
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>99000009</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="13"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1700,9 +1715,9 @@
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
       <c r="AY11" s="10"/>
       <c r="AZ11" s="10"/>
       <c r="BA11" s="10"/>
@@ -1716,11 +1731,8 @@
       <c r="BI11" s="10"/>
       <c r="BJ11" s="10"/>
       <c r="BK11" s="10"/>
-      <c r="BL11" s="10"/>
+      <c r="BL11" s="1"/>
       <c r="BM11" s="10"/>
-      <c r="BN11" s="10"/>
-      <c r="BO11" s="1"/>
-      <c r="BP11" s="10"/>
     </row>
     <row r="12" spans="1:68" ht="12.75" customHeight="1">
       <c r="A12" s="3"/>

--- a/Excel/99_text.xlsx
+++ b/Excel/99_text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A775367-8DAC-4552-A9C7-7FF4728B29B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46788151-584F-4D4D-9D78-0255F027023D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39975" yWindow="1905" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6735" yWindow="3165" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>No</t>
   </si>
@@ -371,6 +371,10 @@
   </si>
   <si>
     <t>메테오</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -815,7 +819,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1734,17 +1738,28 @@
       <c r="BL11" s="1"/>
       <c r="BM11" s="10"/>
     </row>
-    <row r="12" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+    <row r="12" spans="1:68" ht="16.5">
+      <c r="A12" s="3">
+        <f>ROW()-2</f>
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <v>99000010</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="13"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1782,9 +1797,9 @@
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
       <c r="AY12" s="10"/>
       <c r="AZ12" s="10"/>
       <c r="BA12" s="10"/>
@@ -1798,11 +1813,8 @@
       <c r="BI12" s="10"/>
       <c r="BJ12" s="10"/>
       <c r="BK12" s="10"/>
-      <c r="BL12" s="10"/>
+      <c r="BL12" s="1"/>
       <c r="BM12" s="10"/>
-      <c r="BN12" s="10"/>
-      <c r="BO12" s="1"/>
-      <c r="BP12" s="10"/>
     </row>
     <row r="13" spans="1:68" ht="12.75" customHeight="1">
       <c r="A13" s="3"/>

--- a/Excel/99_text.xlsx
+++ b/Excel/99_text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46788151-584F-4D4D-9D78-0255F027023D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C3CDB8-2E07-4A80-AAAE-C8FD6F7EF16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="3165" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6390" yWindow="2820" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -311,31 +311,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>시전속도</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> {0}% 증가</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t xml:space="preserve">체력을 </t>
     </r>
     <r>
@@ -375,6 +350,10 @@
   </si>
   <si>
     <t>레이저</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨타임 {0}% 감소</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -819,7 +798,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1440,8 +1419,8 @@
       <c r="D8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>21</v>
+      <c r="E8" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="13"/>
@@ -1519,7 +1498,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="13"/>
@@ -1594,10 +1573,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="13"/>
@@ -1672,10 +1651,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="13"/>
@@ -1750,10 +1729,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="13"/>
